--- a/Result/Rails 3 - MYSQL - UNICORN.xlsx
+++ b/Result/Rails 3 - MYSQL - UNICORN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="13980" windowHeight="5265" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="13980" windowHeight="5265"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="52">
   <si>
     <t>Url</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Throughtput 25</t>
   </si>
   <si>
-    <t>Throughtput 30</t>
-  </si>
-  <si>
     <t>Throughput Pedido (req/sec)</t>
   </si>
   <si>
@@ -128,27 +125,6 @@
   </si>
   <si>
     <t>25.0 /sec</t>
-  </si>
-  <si>
-    <t>30.0 /sec</t>
-  </si>
-  <si>
-    <t>35.0 /sec</t>
-  </si>
-  <si>
-    <t>40.0 /sec</t>
-  </si>
-  <si>
-    <t>Throughtput 35</t>
-  </si>
-  <si>
-    <t>Throughtput 40</t>
-  </si>
-  <si>
-    <t>Throughtput 45</t>
-  </si>
-  <si>
-    <t>45.0 /sec</t>
   </si>
   <si>
     <t>ip-0AD076EF</t>
@@ -556,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -570,14 +546,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -599,17 +573,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,7 +623,7 @@
             <c:strRef>
               <c:f>Resumen!$H$7:$H$16</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>5.0/sec</c:v>
                 </c:pt>
@@ -664,18 +641,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>19.8/sec</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -711,7 +676,7 @@
             <c:strRef>
               <c:f>Resumen!$H$7:$H$16</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>5.0/sec</c:v>
                 </c:pt>
@@ -729,18 +694,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>19.8/sec</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -776,7 +729,7 @@
             <c:strRef>
               <c:f>Resumen!$H$7:$H$16</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>5.0/sec</c:v>
                 </c:pt>
@@ -794,18 +747,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>19.8/sec</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -841,7 +782,7 @@
             <c:strRef>
               <c:f>Resumen!$H$7:$H$16</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>5.0/sec</c:v>
                 </c:pt>
@@ -859,18 +800,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>19.8/sec</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -906,7 +835,7 @@
             <c:strRef>
               <c:f>Resumen!$H$7:$H$16</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>5.0/sec</c:v>
                 </c:pt>
@@ -924,18 +853,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>19.8/sec</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -971,7 +888,7 @@
             <c:strRef>
               <c:f>Resumen!$H$7:$H$16</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>5.0/sec</c:v>
                 </c:pt>
@@ -989,18 +906,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>19.8/sec</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1026,9 +931,6 @@
               <c:f>Resumen!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Throughtput 30</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1036,7 +938,7 @@
             <c:strRef>
               <c:f>Resumen!$H$7:$H$16</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>5.0/sec</c:v>
                 </c:pt>
@@ -1055,18 +957,6 @@
                 <c:pt idx="5">
                   <c:v>19.8/sec</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -1076,9 +966,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1091,9 +978,6 @@
               <c:f>Resumen!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Throughtput 35</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1101,7 +985,7 @@
             <c:strRef>
               <c:f>Resumen!$H$7:$H$16</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>5.0/sec</c:v>
                 </c:pt>
@@ -1120,18 +1004,6 @@
                 <c:pt idx="5">
                   <c:v>19.8/sec</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -1141,9 +1013,6 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1156,9 +1025,6 @@
               <c:f>Resumen!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Throughtput 40</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1166,7 +1032,7 @@
             <c:strRef>
               <c:f>Resumen!$H$7:$H$16</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>5.0/sec</c:v>
                 </c:pt>
@@ -1185,18 +1051,6 @@
                 <c:pt idx="5">
                   <c:v>19.8/sec</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -1206,9 +1060,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1221,9 +1072,6 @@
               <c:f>Resumen!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Throughtput 45</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1231,7 +1079,7 @@
             <c:strRef>
               <c:f>Resumen!$H$7:$H$16</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>5.0/sec</c:v>
                 </c:pt>
@@ -1250,18 +1098,6 @@
                 <c:pt idx="5">
                   <c:v>19.8/sec</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -1271,18 +1107,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="67216128"/>
-        <c:axId val="67217664"/>
+        <c:axId val="66284544"/>
+        <c:axId val="66319104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67216128"/>
+        <c:axId val="66284544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,14 +1123,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="67217664"/>
+        <c:crossAx val="66319104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67217664"/>
+        <c:axId val="66319104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1305,7 +1138,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67216128"/>
+        <c:crossAx val="66284544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1318,7 +1151,131 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-AR"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Resumen!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg gen time (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Resumen!$H$7:$H$12</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.0/sec</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0/sec</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0/sec</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.7/sec</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.2/sec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.8/sec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Resumen!$C$7:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>231.59100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>246.07933333333301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>229.13166666666601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>301.952666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>583.17333333333295</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>950.97333333333302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="84988288"/>
+        <c:axId val="84989824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="84988288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84989824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="84989824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84988288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1329,15 +1286,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1351,6 +1308,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1959,10 +1946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1977,7 +1964,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1">
@@ -1992,498 +1979,381 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="45.75" thickBot="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
+      <c r="B4" s="7" t="s">
+        <v>24</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="17" t="s">
+      <c r="H4" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="I4" s="15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="20">
         <f>'Simple Concurrent'!B2</f>
         <v>3000</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="20">
         <f>'Simple Concurrent'!C2</f>
         <v>86.732333333333301</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="20">
         <f>'Simple Concurrent'!D2</f>
         <v>2.22830737232446E+16</v>
       </c>
-      <c r="E5" s="22" t="str">
+      <c r="E5" s="20" t="str">
         <f>'Simple Concurrent'!E2</f>
         <v>331.0</v>
       </c>
-      <c r="F5" s="22" t="str">
+      <c r="F5" s="20" t="str">
         <f>'Simple Concurrent'!F2</f>
         <v>2835.0</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="20">
         <f>'Simple Concurrent'!G2</f>
         <v>0</v>
       </c>
-      <c r="H5" s="22" t="str">
+      <c r="H5" s="20" t="str">
         <f>'Simple Concurrent'!H2</f>
         <v>21.3/sec</v>
       </c>
-      <c r="I5" s="23" t="s">
-        <v>27</v>
+      <c r="I5" s="21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="25">
         <f>'Gaussian Concurrent'!B2</f>
         <v>3000</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="25">
         <f>'Gaussian Concurrent'!C2</f>
         <v>663.07933333333301</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="25">
         <f>'Gaussian Concurrent'!D2</f>
         <v>165.35832719548401</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="25">
         <f>'Gaussian Concurrent'!E2</f>
         <v>103</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="25">
         <f>'Gaussian Concurrent'!F2</f>
         <v>1954</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="25">
         <f>'Gaussian Concurrent'!G2</f>
         <v>0</v>
       </c>
-      <c r="H6" s="28" t="str">
+      <c r="H6" s="25" t="str">
         <f>'Gaussian Concurrent'!H2</f>
         <v>20.2/sec</v>
       </c>
-      <c r="I6" s="29" t="s">
-        <v>27</v>
+      <c r="I6" s="26" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickTop="1">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <f>'Throughtput 5'!B2</f>
         <v>3000</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <f>'Throughtput 5'!C2</f>
         <v>231.59100000000001</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <f>'Throughtput 5'!D2</f>
         <v>134.696512151082</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <f>'Throughtput 5'!E2</f>
         <v>101</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <f>'Throughtput 5'!F2</f>
         <v>3187</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <f>'Throughtput 5'!G2</f>
         <v>0</v>
       </c>
-      <c r="H7" s="10" t="str">
+      <c r="H7" s="9" t="str">
         <f>'Throughtput 5'!H2</f>
         <v>5.0/sec</v>
       </c>
-      <c r="I7" s="27" t="s">
-        <v>28</v>
+      <c r="I7" s="24" t="s">
+        <v>27</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="12">
         <f>'Throughtput 8'!B2</f>
         <v>3000</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="12">
         <f>'Throughtput 8'!C2</f>
         <v>246.07933333333301</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <f>'Throughtput 8'!D2</f>
         <v>99.390286444680001</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="12">
         <f>'Throughtput 8'!E2</f>
         <v>101</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="12">
         <f>'Throughtput 8'!F2</f>
         <v>739</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="12">
         <f>'Throughtput 8'!G2</f>
         <v>0</v>
       </c>
-      <c r="H8" s="14" t="str">
+      <c r="H8" s="12" t="str">
         <f>'Throughtput 8'!H2</f>
         <v>8.0/sec</v>
       </c>
-      <c r="I8" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+      <c r="I8" s="22" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <f>'Throughtput 10'!B2</f>
         <v>3000</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <f>'Throughtput 10'!C2</f>
         <v>229.13166666666601</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <f>'Throughtput 10'!D2</f>
         <v>86.109718753976196</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <f>'Throughtput 10'!E2</f>
         <v>99</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <f>'Throughtput 10'!F2</f>
         <v>642</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <f>'Throughtput 10'!G2</f>
         <v>0</v>
       </c>
-      <c r="H9" s="11" t="str">
+      <c r="H9" s="10" t="str">
         <f>'Throughtput 10'!H2</f>
         <v>10.0/sec</v>
       </c>
-      <c r="I9" s="25" t="s">
-        <v>30</v>
+      <c r="I9" s="23" t="s">
+        <v>29</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="12">
         <f>'Throughtput 15'!B2</f>
         <v>3000</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <f>'Throughtput 15'!C2</f>
         <v>301.952666666666</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <f>'Throughtput 15'!D2</f>
         <v>123.42327613902</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="12">
         <f>'Throughtput 15'!E2</f>
         <v>98</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="12">
         <f>'Throughtput 15'!F2</f>
         <v>1343</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="12">
         <f>'Throughtput 15'!G2</f>
         <v>0</v>
       </c>
-      <c r="H10" s="14" t="str">
+      <c r="H10" s="12" t="str">
         <f>'Throughtput 15'!H2</f>
         <v>14.7/sec</v>
       </c>
-      <c r="I10" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10">
-        <v>0.1</v>
+      <c r="I10" s="22" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <f>'Throughtput 20'!B2</f>
         <v>3000</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <f>'Throughtput 20'!C2</f>
         <v>583.17333333333295</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <f>'Throughtput 20'!D2</f>
         <v>213.888235508381</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <f>'Throughtput 20'!E2</f>
         <v>128</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <f>'Throughtput 20'!F2</f>
         <v>3636</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <f>'Throughtput 20'!G2</f>
         <v>0</v>
       </c>
-      <c r="H11" s="11" t="str">
+      <c r="H11" s="10" t="str">
         <f>'Throughtput 20'!H2</f>
         <v>19.2/sec</v>
       </c>
-      <c r="I11" s="25" t="s">
-        <v>32</v>
+      <c r="I11" s="23" t="s">
+        <v>31</v>
       </c>
-      <c r="J11">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="13" t="s">
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A12" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="29">
         <f>'Throughtput 25'!B2</f>
         <v>3000</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="29">
         <f>'Throughtput 25'!C2</f>
         <v>950.97333333333302</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="29">
         <f>'Throughtput 25'!D2</f>
         <v>235.51749536334199</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="29">
         <f>'Throughtput 25'!E2</f>
         <v>115</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="29">
         <f>'Throughtput 25'!F2</f>
         <v>2326</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="29">
         <f>'Throughtput 25'!G2</f>
         <v>0</v>
       </c>
-      <c r="H12" s="14" t="str">
+      <c r="H12" s="29" t="str">
         <f>'Throughtput 25'!H2</f>
         <v>19.8/sec</v>
       </c>
-      <c r="I12" s="24" t="s">
-        <v>33</v>
+      <c r="I12" s="30" t="s">
+        <v>32</v>
       </c>
-      <c r="J12">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="12">
-        <f>'Throughtput 30'!B2</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="12">
-        <f>'Throughtput 30'!C2</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="12">
-        <f>'Throughtput 30'!D2</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="12">
-        <f>'Throughtput 30'!E2</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="12">
-        <f>'Throughtput 30'!F2</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="12">
-        <f>'Throughtput 30'!G2</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="12">
-        <f>'Throughtput 30'!H2</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A14" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="34">
-        <f>'Throughtput 35'!B2</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="36">
-        <f>'Throughtput 35'!C2</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="34">
-        <f>'Throughtput 35'!D2</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="34">
-        <f>'Throughtput 35'!E2</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="34">
-        <f>'Throughtput 35'!F2</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="34">
-        <f>'Throughtput 35'!G2</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="34">
-        <f>'Throughtput 35'!H2</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14">
-        <f>35-33.6</f>
-        <v>1.3999999999999986</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A15" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="12">
-        <f>'Throughtput 40'!B2</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="12">
-        <f>'Throughtput 40'!C2</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="12">
-        <f>'Throughtput 40'!D2</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="12">
-        <f>'Throughtput 40'!E2</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="12">
-        <f>'Throughtput 40'!F2</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="12">
-        <f>'Throughtput 40'!G2</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="12">
-        <f>'Throughtput 40'!H2</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15">
-        <f>40-37.3</f>
-        <v>2.7000000000000028</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A16" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="34">
-        <f>'Throughtput 45'!B2</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="34">
-        <f>'Throughtput 45'!C2</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="34">
-        <f>'Throughtput 45'!D2</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="34">
-        <f>'Throughtput 45'!E2</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="34">
-        <f>'Throughtput 45'!F2</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="34">
-        <f>'Throughtput 45'!G2</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="34">
-        <f>'Throughtput 45'!H2</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16">
-        <f>45-37.7</f>
-        <v>7.2999999999999972</v>
-      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="34"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="35"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="34"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="35"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="34"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="35"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="34"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2506,16 +2376,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -2530,7 +2400,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2561,16 +2431,16 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -2585,7 +2455,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2616,16 +2486,16 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -2640,7 +2510,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2671,16 +2541,16 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -2695,7 +2565,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2729,16 +2599,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -2753,13 +2623,13 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>3000</v>
@@ -2771,19 +2641,19 @@
         <v>2.22830737232446E+16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -29776,7 +29646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -29787,16 +29657,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -29811,13 +29681,13 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>3000</v>
@@ -29838,10 +29708,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -29864,16 +29734,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -29888,13 +29758,13 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>3000</v>
@@ -29915,10 +29785,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -29941,16 +29811,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -29965,13 +29835,13 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>3000</v>
@@ -29992,10 +29862,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -30019,16 +29889,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -30043,13 +29913,13 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>3000</v>
@@ -30070,10 +29940,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -30096,16 +29966,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -30120,13 +29990,13 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>3000</v>
@@ -30147,14 +30017,14 @@
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="I3" s="30"/>
+      <c r="I3" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30180,16 +30050,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -30204,13 +30074,13 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>3000</v>
@@ -30231,10 +30101,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -30257,16 +30127,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -30281,13 +30151,13 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>3000</v>
@@ -30308,10 +30178,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
